--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF0F09-6654-4728-95A6-0B9595D34615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED68D1-1CDD-4FD7-879B-9628E9F1D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9050" yWindow="1660" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -170,15 +170,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>*EventUnlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,level.LevelUnlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>reward_id</t>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,level.LevelUnlocker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*LevelUnlockers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -575,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -612,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -646,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -679,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>30</v>
@@ -739,15 +743,9 @@
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
       <c r="I5" s="6"/>
       <c r="K5" s="6">
         <v>40000000</v>
@@ -763,15 +761,9 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
       <c r="I6" s="6"/>
       <c r="K6" s="6">
         <v>40000001</v>
@@ -812,13 +804,13 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="6"/>
@@ -834,14 +826,62 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>2001</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="B10">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="K10" s="6">
+        <v>40000000</v>
+      </c>
+      <c r="L10" s="6">
+        <v>233</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED68D1-1CDD-4FD7-879B-9628E9F1D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BCE93A-8DC4-4AC5-8469-FA8B856D6603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9050" yWindow="1660" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8690" yWindow="5990" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -182,6 +182,25 @@
   </si>
   <si>
     <t>*LevelUnlockers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before1-1</t>
+  </si>
+  <si>
+    <t>After1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试关卡2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是第2个测试关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +601,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -746,7 +765,12 @@
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" s="6">
         <v>40000000</v>
       </c>
@@ -813,7 +837,12 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
       <c r="K8" s="6">
         <v>40000000</v>
       </c>
@@ -844,10 +873,10 @@
         <v>1002</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>39</v>
@@ -858,7 +887,12 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
       <c r="K10" s="6">
         <v>40000000</v>
       </c>
@@ -871,7 +905,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>1000</v>

--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BCE93A-8DC4-4AC5-8469-FA8B856D6603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E39842-2697-439F-B440-A862644DABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8690" yWindow="5990" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -834,7 +834,7 @@
       <c r="F8">
         <v>2000</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
@@ -861,7 +861,7 @@
       <c r="F9">
         <v>2001</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9">
         <v>1</v>
       </c>
       <c r="K9" s="6"/>
@@ -884,7 +884,7 @@
       <c r="F10">
         <v>2000</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
@@ -910,7 +910,7 @@
       <c r="F11">
         <v>1000</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11">
         <v>1</v>
       </c>
       <c r="K11" s="6"/>

--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E39842-2697-439F-B440-A862644DABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB8C7F-575A-48C4-99B5-AA34980DD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="4050" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -189,10 +189,6 @@
   </si>
   <si>
     <t>After1-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -598,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -832,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>3001</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -855,67 +851,45 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1002</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F9">
-        <v>2001</v>
+        <v>3002</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="6">
+        <v>40000000</v>
+      </c>
+      <c r="L9" s="6">
+        <v>233</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10">
-        <v>2000</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="6">
-        <v>40000000</v>
-      </c>
-      <c r="L10" s="6">
-        <v>233</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>1000</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB8C7F-575A-48C4-99B5-AA34980DD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C236D914-DFF3-486E-B310-A92144296D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="4050" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="4500" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -750,7 +750,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>1000</v>
+        <v>30000000</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>1001</v>
+        <v>30000001</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -828,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>3001</v>
+        <v>32000001</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>1002</v>
+        <v>30000002</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>44</v>
@@ -864,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>3002</v>
+        <v>32000002</v>
       </c>
       <c r="G9">
         <v>1</v>

--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18490\Documents\GitHub\genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C236D914-DFF3-486E-B310-A92144296D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A1AF23-E3CA-48C5-8C7F-189D1F9B9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="4500" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-680" yWindow="2680" windowWidth="25150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>这是第2个测试关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡成就：-1：未解锁；0：已解锁；&gt;1：得分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -594,30 +606,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.58203125" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="18.08203125" customWidth="1"/>
-    <col min="9" max="9" width="18.9140625" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="13.08203125" customWidth="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="3" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="18.08203125" customWidth="1"/>
+    <col min="10" max="10" width="18.9140625" customWidth="1"/>
+    <col min="11" max="11" width="20.08203125" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,30 +640,33 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="5"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,52 +677,55 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="9"/>
       <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,185 +736,199 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>30000000</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>40000000</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>233</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="K6" s="6">
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="L6" s="6">
         <v>40000001</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>666</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="K7" s="6">
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="L7" s="6">
         <v>40114514</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>1919810</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>30000001</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>32000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>40000000</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>233</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>30000002</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>32000002</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>40000000</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>233</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E10" s="6"/>
-      <c r="K10" s="6"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18490\Documents\GitHub\genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A1AF23-E3CA-48C5-8C7F-189D1F9B9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F53495F-BAED-40D3-B3C7-2E2D8D72D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-680" yWindow="2680" windowWidth="25150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="2900" windowWidth="25150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -197,18 +197,6 @@
   </si>
   <si>
     <t>这是第2个测试关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Achievement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡成就：-1：未解锁；0：已解锁；&gt;1：得分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -606,30 +594,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.58203125" customWidth="1"/>
-    <col min="3" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="18.08203125" customWidth="1"/>
-    <col min="10" max="10" width="18.9140625" customWidth="1"/>
-    <col min="11" max="11" width="20.08203125" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="18.08203125" customWidth="1"/>
+    <col min="9" max="9" width="18.9140625" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,33 +628,30 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -677,55 +662,52 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,199 +718,185 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>30000000</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
       <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
         <v>43</v>
       </c>
+      <c r="K5" s="6">
+        <v>40000000</v>
+      </c>
       <c r="L5" s="6">
-        <v>40000000</v>
-      </c>
-      <c r="M5" s="6">
         <v>233</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="6">
+        <v>40000001</v>
+      </c>
       <c r="L6" s="6">
-        <v>40000001</v>
-      </c>
-      <c r="M6" s="6">
         <v>666</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="6">
+        <v>40114514</v>
+      </c>
       <c r="L7" s="6">
-        <v>40114514</v>
-      </c>
-      <c r="M7" s="6">
         <v>1919810</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>30000001</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
-        <v>-1</v>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F8">
+        <v>32000001</v>
+      </c>
       <c r="G8">
-        <v>32000001</v>
-      </c>
-      <c r="H8">
         <v>1</v>
       </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
       <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
         <v>43</v>
       </c>
+      <c r="K8" s="6">
+        <v>40000000</v>
+      </c>
       <c r="L8" s="6">
-        <v>40000000</v>
-      </c>
-      <c r="M8" s="6">
         <v>233</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>30000002</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7">
-        <v>-1</v>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F9">
+        <v>32000002</v>
+      </c>
       <c r="G9">
-        <v>32000002</v>
-      </c>
-      <c r="H9">
         <v>1</v>
       </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
       <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
         <v>43</v>
       </c>
+      <c r="K9" s="6">
+        <v>40000000</v>
+      </c>
       <c r="L9" s="6">
-        <v>40000000</v>
-      </c>
-      <c r="M9" s="6">
         <v>233</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/LevelDatas/Levels.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18490\Documents\GitHub\genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F53495F-BAED-40D3-B3C7-2E2D8D72D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F7720D-530D-448E-BE72-B88672ACDEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="2900" windowWidth="25150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="970" windowWidth="25150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -196,8 +196,55 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>测试关卡3</t>
+  </si>
+  <si>
+    <t>测试关卡4</t>
+  </si>
+  <si>
+    <t>测试关卡5</t>
+  </si>
+  <si>
+    <t>测试关卡6</t>
+  </si>
+  <si>
+    <t>测试关卡7</t>
+  </si>
+  <si>
+    <t>测试关卡8</t>
+  </si>
+  <si>
+    <t>测试关卡9</t>
+  </si>
+  <si>
+    <t>测试关卡10</t>
+  </si>
+  <si>
     <t>这是第2个测试关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是第3个测试关卡</t>
+  </si>
+  <si>
+    <t>这是第4个测试关卡</t>
+  </si>
+  <si>
+    <t>这是第5个测试关卡</t>
+  </si>
+  <si>
+    <t>这是第6个测试关卡</t>
+  </si>
+  <si>
+    <t>这是第7个测试关卡</t>
+  </si>
+  <si>
+    <t>这是第8个测试关卡</t>
+  </si>
+  <si>
+    <t>这是第9个测试关卡</t>
+  </si>
+  <si>
+    <t>这是第10个测试关卡</t>
   </si>
 </sst>
 </file>
@@ -594,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -858,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
@@ -886,10 +933,119 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E10" s="6"/>
+      <c r="B10">
+        <v>30000003</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>30000004</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>30000005</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>30000006</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>30000007</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>30000008</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>30000009</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>30000010</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
